--- a/Copy of Labs.xlsx
+++ b/Copy of Labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandeep\Ericsson Microservices Python\Python_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3959B42-5EDA-4DE2-9160-A7D276C5B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4DA76-A90C-49A6-9B0F-443536B2FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="12730" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>Swetalina Mishra</t>
+  </si>
+  <si>
+    <t>prashant rawat</t>
+  </si>
+  <si>
+    <t>Gauri Garg</t>
   </si>
 </sst>
 </file>
@@ -864,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1060,7 +1066,9 @@
       <c r="E18" s="4">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1078,9 @@
       <c r="E19" s="4">
         <v>15</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
